--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.09979999999999</v>
+        <v>-22.10169999999999</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.94500000000001</v>
+        <v>-12.38779999999999</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.519800000000002</v>
+        <v>-8.530400000000004</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-22.05469999999999</v>
+        <v>-22.06799999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.835999999999995</v>
+        <v>-8.5829</v>
       </c>
     </row>
     <row r="16">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.6559</v>
+        <v>-11.11989999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.36040000000001</v>
+        <v>-12.61020000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.64159999999999</v>
+        <v>-19.82609999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.838599999999997</v>
+        <v>-7.713299999999997</v>
       </c>
     </row>
     <row r="22">
@@ -740,18 +740,18 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.597500000000007</v>
+        <v>8.631300000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.942000000000004</v>
+        <v>-8.328600000000005</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.44379999999998</v>
+        <v>-20.09609999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,18 +768,18 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.710299999999998</v>
+        <v>6.001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.069699999999997</v>
+        <v>-7.062999999999997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.86329999999998</v>
+        <v>-21.94399999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.06369999999996</v>
+        <v>-21.03509999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.958700000000001</v>
+        <v>6.000900000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.84089999999997</v>
+        <v>-20.86209999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -900,7 +900,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-8.240499999999999</v>
+        <v>-8.269399999999997</v>
       </c>
     </row>
     <row r="34">
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.202500000000011</v>
+        <v>9.301600000000006</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.9614</v>
+        <v>-12.80290000000001</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.463800000000005</v>
+        <v>4.663400000000005</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.572099999999995</v>
+        <v>-7.981799999999997</v>
       </c>
     </row>
     <row r="47">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.08609999999999</v>
+        <v>-12.30550000000001</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.392300000000002</v>
+        <v>5.221500000000005</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,13 +1118,13 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.523700000000002</v>
+        <v>5.5336</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.3367</v>
+        <v>-8.271199999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.2177</v>
+        <v>-10.8494</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.5204</v>
+        <v>5.310899999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.7468</v>
+        <v>-21.76280000000001</v>
       </c>
       <c r="B53" t="n">
-        <v>6.723500000000002</v>
+        <v>5.955799999999996</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.882300000000002</v>
+        <v>4.996900000000002</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.052</v>
+        <v>-13.401</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1222,18 +1222,18 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.385499999999997</v>
+        <v>-8.531799999999997</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.00289999999999</v>
+        <v>-22.02539999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.65569999999999</v>
+        <v>-12.7922</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.50189999999999</v>
+        <v>-22.5653</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.149199999999997</v>
+        <v>-8.339099999999997</v>
       </c>
     </row>
     <row r="62">
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.596</v>
+        <v>-10.43899999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.053099999999998</v>
+        <v>-7.006299999999997</v>
       </c>
     </row>
     <row r="67">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.65229999999998</v>
+        <v>-21.656</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.8791</v>
+        <v>5.026900000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1474,7 +1474,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.383800000000003</v>
+        <v>-8.336700000000009</v>
       </c>
     </row>
     <row r="75">
@@ -1516,7 +1516,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.560499999999995</v>
+        <v>-6.437799999999997</v>
       </c>
     </row>
     <row r="78">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.984</v>
+        <v>-20.27330000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.71110000000001</v>
+        <v>-13.1625</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.57379999999999</v>
+        <v>-21.69200000000001</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.265200000000002</v>
+        <v>5.068300000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,13 +1650,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.104299999999994</v>
+        <v>5.437099999999996</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.508699999999997</v>
+        <v>-8.508599999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.622699999999996</v>
+        <v>-7.624199999999997</v>
       </c>
     </row>
     <row r="89">
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.591299999999999</v>
+        <v>4.548299999999998</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.81579999999998</v>
+        <v>-20.24869999999997</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.37630000000001</v>
+        <v>-10.28770000000001</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.27100000000002</v>
+        <v>-21.29400000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.8138</v>
+        <v>-10.6689</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.16050000000001</v>
+        <v>-10.27260000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.049599999999998</v>
+        <v>-8.122999999999998</v>
       </c>
     </row>
     <row r="101">
@@ -1846,10 +1846,10 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.090100000000001</v>
+        <v>6.1287</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.82379999999999</v>
+        <v>-12.42719999999999</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.85390000000001</v>
+        <v>-21.8485</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
